--- a/Project Documents/Penguin.xlsx
+++ b/Project Documents/Penguin.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00139303\Documents\Push-Penguin-3D\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00139303\Desktop\Penguin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Characters</t>
   </si>
@@ -122,6 +122,24 @@
   </si>
   <si>
     <t>David O'Sullivan - penguins</t>
+  </si>
+  <si>
+    <t>The main player. He will interact with the world and the ice blocks</t>
+  </si>
+  <si>
+    <t>position, direction facing</t>
+  </si>
+  <si>
+    <t>world, iceblocks, pickups</t>
+  </si>
+  <si>
+    <t>positional details, score details</t>
+  </si>
+  <si>
+    <t>can item be moved, can it be collected, can player move. Collision detection</t>
+  </si>
+  <si>
+    <t>turn in all directions(w,a,s,d) and movement collision detection</t>
   </si>
 </sst>
 </file>
@@ -466,13 +484,13 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -493,7 +511,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -501,7 +519,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -514,13 +532,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -533,13 +551,13 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
